--- a/biology/Botanique/Phalangère_à_fleurs_de_Lis/Phalangère_à_fleurs_de_Lis.xlsx
+++ b/biology/Botanique/Phalangère_à_fleurs_de_Lis/Phalangère_à_fleurs_de_Lis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Phalang%C3%A8re_%C3%A0_fleurs_de_Lis</t>
+          <t>Phalangère_à_fleurs_de_Lis</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Anthericum liliago
 La Phalangère à fleurs de Lis (Anthericum liliago) est une espèce de plantes à fleurs de la famille des Liliaceae dans la classification classique et de la famille des Asparagaceae dans la classification phylogénétique.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Phalang%C3%A8re_%C3%A0_fleurs_de_Lis</t>
+          <t>Phalangère_à_fleurs_de_Lis</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,7 +524,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée. Les fleurs sont blanches, à 6 tépales.
 </t>
@@ -525,7 +539,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Phalang%C3%A8re_%C3%A0_fleurs_de_Lis</t>
+          <t>Phalangère_à_fleurs_de_Lis</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -543,7 +557,9 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Organes reproducteurs
 Période de floraison : juin-août
@@ -568,7 +584,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Phalang%C3%A8re_%C3%A0_fleurs_de_Lis</t>
+          <t>Phalangère_à_fleurs_de_Lis</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -586,7 +602,9 @@
           <t>Protection</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">En France, l'espèce est protégée dans le Centre, en Champagne-Ardenne, en Île de France, en Limousin, en Midi-Pyrénées et en Pays de la Loire.
 Liste des espèces végétales protégées dans le Centre
